--- a/biology/Zoologie/Ascorhynchidae/Ascorhynchidae.xlsx
+++ b/biology/Zoologie/Ascorhynchidae/Ascorhynchidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Ascorhynchidae sont une famille de pycnogonides.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon World list of Pycnogonida du World Register of Marine Species                               (11 septembre 2013)[1]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon World list of Pycnogonida du World Register of Marine Species                               (11 septembre 2013):
 genre Ascorhynchus Sars, 1878
 genre Bathyzetes Stock, 1955
 genre Boehmia Hoek, 1881
@@ -549,7 +563,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Hoek, 1881 : Report on the Pycnogonida, dredged by H.M.S. Challenger during the years. 1873-1876. Report on the scientific results of the voyage of H.M.S. Challenger during the years 1873-76. Challenger zoological reports, vol. 3, p. 1-167 (texte original)
 ↑ 'World list of Pycnogonida' du 'World Register of Marine Species', consulté le 11 septembre 2013
